--- a/现金流量表/300646.xlsx
+++ b/现金流量表/300646.xlsx
@@ -724,14 +724,14 @@
       </c>
       <c r="J2" t="inlineStr">
         <is>
+          <t>002</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
           <t>001</t>
         </is>
       </c>
-      <c r="K2" t="inlineStr">
-        <is>
-          <t>001</t>
-        </is>
-      </c>
       <c r="L2" t="inlineStr">
         <is>
           <t>2</t>
@@ -744,53 +744,55 @@
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>2017-12-31 00:00:00</t>
+          <t>2020-06-30 00:00:00</t>
         </is>
       </c>
       <c r="O2" t="n">
-        <v>160963615.99</v>
+        <v>92486140.09999999</v>
       </c>
       <c r="P2" t="n">
-        <v>3125.6342622591</v>
+        <v>212.2278367414</v>
       </c>
       <c r="Q2" t="n">
-        <v>352877624.65</v>
+        <v>260091253.48</v>
       </c>
       <c r="R2" t="n">
-        <v>6852.2714726983</v>
+        <v>596.8310929803</v>
       </c>
       <c r="S2" t="n">
-        <v>37153759.07</v>
+        <v>26195507.89</v>
       </c>
       <c r="T2" t="n">
-        <v>721.4615651286</v>
+        <v>60.1108010976</v>
       </c>
       <c r="U2" t="n">
-        <v>-12859839.81</v>
+        <v>26925968.1</v>
       </c>
       <c r="V2" t="n">
-        <v>-249.7157862047</v>
-      </c>
-      <c r="W2" t="inlineStr"/>
-      <c r="X2" t="inlineStr"/>
+        <v>61.786987281</v>
+      </c>
+      <c r="W2" t="n">
+        <v>522226.64</v>
+      </c>
+      <c r="X2" t="n">
+        <v>1.1983528556</v>
+      </c>
       <c r="Y2" t="n">
-        <v>12861365.45</v>
+        <v>11001318.54</v>
       </c>
       <c r="Z2" t="n">
-        <v>249.7454114876</v>
+        <v>25.2447126945</v>
       </c>
       <c r="AA2" t="n">
-        <v>-142953256.65</v>
+        <v>-75833404.52</v>
       </c>
       <c r="AB2" t="n">
-        <v>-2775.9043193619</v>
+        <v>-174.0148240224</v>
       </c>
       <c r="AC2" t="n">
-        <v>5149790.49</v>
-      </c>
-      <c r="AD2" t="n">
-        <v>-41.1332537599</v>
-      </c>
+        <v>43578703.68</v>
+      </c>
+      <c r="AD2" t="inlineStr"/>
       <c r="AE2" t="inlineStr"/>
       <c r="AF2" t="inlineStr"/>
       <c r="AG2" t="inlineStr"/>
